--- a/module4/Schedule.xlsx
+++ b/module4/Schedule.xlsx
@@ -375,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="26"/>
-    <col min="2" max="2" customWidth="1" width="85"/>
-    <col min="3" max="3" customWidth="1" width="21"/>
+    <col min="1" max="1" customWidth="1" width="37"/>
+    <col min="2" max="2" customWidth="1" width="77"/>
+    <col min="3" max="3" customWidth="1" width="19"/>
     <col min="4" max="4" customWidth="1" width="17"/>
-    <col min="5" max="5" customWidth="1" width="17"/>
-    <col min="6" max="6" customWidth="1" width="15"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
+    <col min="6" max="6" customWidth="1" width="16"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
   <sheetData>
@@ -414,148 +414,148 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SKV Rajokari Site 1</v>
+        <v>EDMC Schol MohnPuri Vjy Park 1</v>
       </c>
       <c r="B2" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
       </c>
       <c r="C2" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D2" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E2" t="str">
         <v>#1</v>
       </c>
       <c r="F2" t="str">
-        <v>50 Slots</v>
+        <v>105 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Wed, 23 Mar</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SKV Rajokari Site 1</v>
+        <v>EDMC Schol MohnPuri Vjy Park 1</v>
       </c>
       <c r="B3" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
       </c>
       <c r="C3" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D3" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E3" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F3" t="str">
-        <v>49 Slots</v>
+        <v>137 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SKV Rajokari Site 1</v>
+        <v>GBSSS Jafrabad Extn Site 1</v>
       </c>
       <c r="B4" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
       </c>
       <c r="C4" t="str">
-        <v>COVAXINFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D4" t="str">
-        <v>15 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E4" t="str">
-        <v>Precaution</v>
+        <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>20 Slots</v>
+        <v>147 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SKV Rajokari Site 2</v>
+        <v>EDMC Schol MohnPuri Vjy Park 1</v>
       </c>
       <c r="B5" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
       </c>
       <c r="C5" t="str">
-        <v>COVISHIELDFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D5" t="str">
-        <v>18 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E5" t="str">
         <v>#1</v>
       </c>
       <c r="F5" t="str">
-        <v>50 Slots</v>
+        <v>149 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SKV Rajokari Site 2</v>
+        <v>GBSSS Jafrabad Extn Site 1</v>
       </c>
       <c r="B6" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
       </c>
       <c r="C6" t="str">
-        <v>COVISHIELDFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D6" t="str">
-        <v>18 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E6" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F6" t="str">
-        <v>47 Slots</v>
+        <v>148 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Fri, 25 Mar</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SKV Rajokari Site 2</v>
+        <v>EDMC Schol MohnPuri Vjy Park 1</v>
       </c>
       <c r="B7" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
       </c>
       <c r="C7" t="str">
-        <v>COVISHIELDFree</v>
+        <v>CORBEVAXFree</v>
       </c>
       <c r="D7" t="str">
-        <v>18 &amp; Above</v>
+        <v>12-14 Only</v>
       </c>
       <c r="E7" t="str">
-        <v>Precaution</v>
+        <v>#1</v>
       </c>
       <c r="F7" t="str">
-        <v>20 Slots</v>
+        <v>149 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Tue, 22 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SKV Rajokari Site 3</v>
+        <v>GBSSS Jafrabad Extn Site 1</v>
       </c>
       <c r="B8" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
+        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
       </c>
       <c r="C8" t="str">
         <v>CORBEVAXFree</v>
@@ -567,314 +567,15 @@
         <v>#1</v>
       </c>
       <c r="F8" t="str">
-        <v>90 Slots</v>
+        <v>149 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Tue, 22 Mar</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C9" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D9" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E9" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C10" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D10" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E10" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F10" t="str">
-        <v>49 Slots</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C11" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D11" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Precaution</v>
-      </c>
-      <c r="F11" t="str">
-        <v>20 Slots</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C12" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D12" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E12" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F12" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C13" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D13" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E13" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F13" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C14" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D14" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Precaution</v>
-      </c>
-      <c r="F14" t="str">
-        <v>20 Slots</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>SKV Rajokari Site 3</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C15" t="str">
-        <v>CORBEVAXFree</v>
-      </c>
-      <c r="D15" t="str">
-        <v>12-14 Only</v>
-      </c>
-      <c r="E15" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F15" t="str">
-        <v>96 Slots</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Wed, 23 Mar</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C16" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D16" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E16" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Thu, 24 Mar</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C17" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D17" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E17" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F17" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Thu, 24 Mar</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>SKV Rajokari Site 1</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C18" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D18" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Precaution</v>
-      </c>
-      <c r="F18" t="str">
-        <v>20 Slots</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Thu, 24 Mar</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C19" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D19" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E19" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F19" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Thu, 24 Mar</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C20" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D20" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E20" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F20" t="str">
-        <v>50 Slots</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Thu, 24 Mar</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>SKV Rajokari Site 2</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Sarvodaya Kanya Vidyalaya Rajokari New Delhi- 110038, New Delhi, Delhi, 110038</v>
-      </c>
-      <c r="C21" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D21" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Precaution</v>
-      </c>
-      <c r="F21" t="str">
-        <v>20 Slots</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Thu, 24 Mar</v>
+        <v>Sat, 26 Mar</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/module4/Schedule.xlsx
+++ b/module4/Schedule.xlsx
@@ -375,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="37"/>
-    <col min="2" max="2" customWidth="1" width="77"/>
-    <col min="3" max="3" customWidth="1" width="19"/>
+    <col min="2" max="2" customWidth="1" width="115"/>
+    <col min="3" max="3" customWidth="1" width="18"/>
     <col min="4" max="4" customWidth="1" width="17"/>
-    <col min="5" max="5" customWidth="1" width="11"/>
-    <col min="6" max="6" customWidth="1" width="16"/>
+    <col min="5" max="5" customWidth="1" width="17"/>
+    <col min="6" max="6" customWidth="1" width="14"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
   <sheetData>
@@ -414,45 +414,45 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>EDMC Schol MohnPuri Vjy Park 1</v>
+        <v>EDMC Pr School Chauhan Bangar</v>
       </c>
       <c r="B2" t="str">
-        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
+        <v>Chauhan Bangar North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C2" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D2" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E2" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F2" t="str">
-        <v>105 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Wed, 23 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>EDMC Schol MohnPuri Vjy Park 1</v>
+        <v>EDMC Pri School Shastri Park</v>
       </c>
       <c r="B3" t="str">
-        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
+        <v>Near DDA Ground Durga Mandir North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C3" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D3" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E3" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F3" t="str">
-        <v>137 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
         <v>Thu, 24 Mar</v>
@@ -460,22 +460,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GBSSS Jafrabad Extn Site 1</v>
+        <v>GBSSS Brahmpuri</v>
       </c>
       <c r="B4" t="str">
-        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
+        <v>GBSSS  X-Block Brahmpuri North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C4" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D4" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E4" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F4" t="str">
-        <v>147 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G4" t="str">
         <v>Thu, 24 Mar</v>
@@ -483,99 +483,260 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>EDMC Schol MohnPuri Vjy Park 1</v>
+        <v>MCW New Seelampur PHC</v>
       </c>
       <c r="B5" t="str">
-        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
+        <v>F-84 NEW SEELAMPUR PH-1  DELHI-53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C5" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D5" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E5" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F5" t="str">
-        <v>149 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>GBSSS Jafrabad Extn Site 1</v>
+        <v>MH Yamuna Vihar CHC</v>
       </c>
       <c r="B6" t="str">
-        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
+        <v>MCD M And CW HM B2 Block Yamuna Vihar Near Petrol Pump 53, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C6" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D6" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E6" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F6" t="str">
-        <v>148 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Fri, 25 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>EDMC Schol MohnPuri Vjy Park 1</v>
+        <v>CR Dass GSK Vidyalaya</v>
       </c>
       <c r="B7" t="str">
-        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
+        <v>New Seelampur North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C7" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D7" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E7" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F7" t="str">
-        <v>149 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GBSSS Jafrabad Extn Site 1</v>
+        <v>Nigam Pratibha Vidhyalay</v>
       </c>
       <c r="B8" t="str">
-        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
+        <v>Arvind Nagar Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
       </c>
       <c r="C8" t="str">
-        <v>CORBEVAXFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D8" t="str">
-        <v>12-14 Only</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F8" t="str">
-        <v>149 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Sat, 26 Mar</v>
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>GBSSS No. 1 North Ghonda AN S1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>North Ghonda North East Delhi, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C9" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D9" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SPUHC Jafrabad PHC</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Taiyab HouseH NO.459GALI NO.21JAFRABAD DELHI-110053, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C10" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D10" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>EDMC Primary Sch Bhajanpura S1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>EDMC Primary School B And D Block Bhajanpura North East Delhi, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C11" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D11" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Pt MMM SB Vidhalaya Gautampuri</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pt. Madan Mohan Malviya SB Vidhalaya Gali No. 7 Gautampuri North East Delhi, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C12" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D12" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>SBV Buland Msjid Shastri Park</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Buland Masjid Shastri Park North East Delhi, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C13" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D13" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Polyclinic Gautampuri PHC</v>
+      </c>
+      <c r="B14" t="str">
+        <v>DGD GAUTAMPURI T- BLOCK GALI NO.7GAUTAMPURI DELHI, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C14" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D14" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Thu, 24 Mar</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SPUHC Brahampuri PHC</v>
+      </c>
+      <c r="B15" t="str">
+        <v>H. No-x-10-10 B KH No.-77 Gali No.-10 Brahmpuri, North East Delhi, Delhi, 110053</v>
+      </c>
+      <c r="C15" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D15" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Thu, 24 Mar</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
   </ignoredErrors>
 </worksheet>
 </file>